--- a/Circuit/PERfECT-PRO/v2/PERfECT-PRO2/BOM.xlsx
+++ b/Circuit/PERfECT-PRO/v2/PERfECT-PRO2/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projs\githubProj\PERfECT\Circuit\PERfECT-PRO\v2\PERfECT-PRO2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proj\PERfECT\PERfECT\Circuit\PERfECT-PRO\v2\PERfECT-PRO2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744A6B8B-E47A-4642-921C-FE0F06AA77FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BF0D45-3CAE-4722-8234-0FBBBEE7160B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,41 +25,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>R 4.7K</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10pinfcc</t>
+  </si>
+  <si>
+    <t>FFC3B07-10-T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF444444"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,12 +89,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -353,20 +388,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5051101092</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
